--- a/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 4,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 5,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 2,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 0,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 3,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 2,07</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>181,61%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>86,93%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>144,48%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>170,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,19%</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,83; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,37; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,55; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 0,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; -0,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 0,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 0,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 0,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; -0,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 0,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,6%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 159,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 165,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 118,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 144,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,21; 176,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,9; 55,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -15,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,27; 28,19</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 2,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 0,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 2,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 5,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 1,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 3,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 0,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 1,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>353,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>201,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,36%</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,12; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,34; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,04; 1030,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,11; 696,88</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; -0,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 1,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 1,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 1,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 0,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 0,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 0,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,36%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,01; 383,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,92; 198,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,21; 191,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,67; 135,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,62; 144,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,36; 48,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,45; 67,97</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 4,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 1,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 3,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 2,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 2,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,36</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>372,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,09%</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 2,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 4,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 2,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 1,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 2,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 2,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,09%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>307,72%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>247,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>193,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,72%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>169,06%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,22%</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,62; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,27; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 0,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 2,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 1,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 1,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 1,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 0,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 1,36</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 1,06</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,63%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 238,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,23; 1021,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,0; 128,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,16; 170,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,55; 176,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,12; 62,43</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,48; 154,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,94; 119,52</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 0,34</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 2,36</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; -0,13</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,81</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 2,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 0,48</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,37</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 2,22</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 0,06</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,29%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,34%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,73%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>223,94%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,7%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,75%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,26%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,74%</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,46; 84,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,2; 324,12</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 19,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2323,27 +2323,27 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,08; 1443,4</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,64; 320,17</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,29; 68,24</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 335,89</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,0; 20,08</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 0,45</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,29</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,86</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,83</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,49</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 0,5</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,57</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,24</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,29%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,15; 57,79</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,22; 80,74</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,09; 41,83</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,06; 101,26</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,75; 100,42</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 58,41</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,54; 55,42</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,3; 63,09</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,61; 29,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 2,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,6</t>
+          <t>-0,94; 7,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 6,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,95</t>
+          <t>-1,91; 0,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 4,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,07</t>
+          <t>-0,63; 2,82</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>113,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>621,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>269,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>80,09%</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 1522,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,55; —</t>
+          <t>-76,27; —</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,18</t>
+          <t>-2,58; 0,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,69</t>
+          <t>-1,85; 0,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,08</t>
+          <t>-1,73; 0,09</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-68,34%</t>
+          <t>-69,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,22%</t>
+          <t>-38,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-54,6%</t>
+          <t>-54,91%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 165,06</t>
+          <t>-100,0; 153,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,21; 176,07</t>
+          <t>-82,65; 188,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,27; 28,19</t>
+          <t>-84,52; 28,51</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,3</t>
+          <t>-1,27; 2,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,94</t>
+          <t>-0,72; 1,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,71</t>
+          <t>-0,43; 1,74</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>111,68%</t>
+          <t>109,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>80,1%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,34; —</t>
+          <t>-66,85; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 696,88</t>
+          <t>-47,95; 701,15</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,9</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,64</t>
+          <t>-2,57; 1,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,18</t>
+          <t>-2,79; 0,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,77</t>
+          <t>-3,28; 0,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,85</t>
+          <t>-3,37; 0,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,29</t>
+          <t>-2,18; 0,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,5</t>
+          <t>-2,33; 0,25</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-28,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-37,63%</t>
+          <t>-43,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>-57,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,92%</t>
+          <t>-55,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-45,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,36%</t>
+          <t>-50,66%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 383,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,92; 198,07</t>
+          <t>-100,0; 146,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-91,67; 135,03</t>
+          <t>-93,53; 79,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 144,15</t>
+          <t>-85,05; 90,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-81,45; 67,97</t>
+          <t>-85,74; 35,36</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,4</t>
+          <t>-1,18; 2,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,36</t>
+          <t>-0,59; 1,43</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,32</t>
+          <t>-0,4; 3,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,91</t>
+          <t>-0,94; 1,93</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,14</t>
+          <t>-0,16; 2,19</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>247,75%</t>
+          <t>247,71%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>126,72%</t>
+          <t>129,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>185,22%</t>
+          <t>187,53%</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,27; —</t>
+          <t>-56,66; —</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,02</t>
+          <t>-1,43; 0,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,83</t>
+          <t>-1,76; 1,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,06</t>
+          <t>-1,11; 0,94</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-6,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 176,77</t>
+          <t>-60,38; 124,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 119,52</t>
+          <t>-56,57; 103,31</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,38; -0,13</t>
+          <t>-2,47; -0,27</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,48</t>
+          <t>-1,23; 0,46</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,06</t>
+          <t>-1,38; -0,04</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-70,73%</t>
+          <t>-76,71%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-32,7%</t>
+          <t>-33,35%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-57,74%</t>
+          <t>-62,82%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,91</t>
+          <t>-100,0; -16,25</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-91,64; 320,17</t>
+          <t>-91,56; 289,13</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-86,0; 20,08</t>
+          <t>-89,51; 1,4</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,29</t>
+          <t>-0,83; 0,34</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,49</t>
+          <t>-0,59; 0,44</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,24</t>
+          <t>-0,53; 0,21</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-24,1%</t>
+          <t>-24,4%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-6,64%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-12,29%</t>
+          <t>-15,13%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 41,83</t>
+          <t>-61,3; 45,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 58,41</t>
+          <t>-41,87; 55,32</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 29,26</t>
+          <t>-40,86; 23,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,96</t>
+          <t>-1,22; 3,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,72</t>
+          <t>-0,53; 5,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 7,07</t>
+          <t>-1,12; 5,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,5</t>
+          <t>0,9; 6,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,58</t>
+          <t>-0,95; 2,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,92</t>
+          <t>-1,72; 0,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,01</t>
+          <t>0,28; 3,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,05</t>
+          <t>-0,14; 3,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,82</t>
+          <t>-0,67; 3,19</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,83; —</t>
+          <t>-67,77; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1522,33</t>
+          <t>1,21; 1588,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,37; —</t>
+          <t>-36,2; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,27; —</t>
+          <t>-77,78; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,68</t>
+          <t>-2,27; 0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; -0,51</t>
+          <t>-3,21; -0,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,14</t>
+          <t>-2,61; 0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,47</t>
+          <t>-2,05; 0,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; -0,13</t>
+          <t>-2,51; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,72</t>
+          <t>-1,87; 0,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,3</t>
+          <t>-1,7; 0,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; -0,59</t>
+          <t>-2,27; -0,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,09</t>
+          <t>-1,72; 0,1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 159,23</t>
+          <t>-100,0; 257,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,44 +1017,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 153,2</t>
+          <t>-100,0; 230,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 118,39</t>
+          <t>-100,0; 145,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 144,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 188,07</t>
+          <t>-82,93; 188,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,9; 55,56</t>
+          <t>-83,42; 34,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -15,56</t>
+          <t>-100,0; -39,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,52; 28,51</t>
+          <t>-82,46; 25,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,27</t>
+          <t>-1,2; 2,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,31</t>
+          <t>-2,45; 0,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,37</t>
+          <t>-1,25; 2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,13</t>
+          <t>0,29; 4,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,72</t>
+          <t>-1,36; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,91</t>
+          <t>-0,74; 1,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,22</t>
+          <t>0,23; 3,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,31</t>
+          <t>-1,39; 0,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,74</t>
+          <t>-0,48; 1,65</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,12; —</t>
+          <t>-32,32; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,85; —</t>
+          <t>-71,76; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 1030,09</t>
+          <t>-14,48; 1383,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 701,15</t>
+          <t>-52,26; 710,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,91</t>
+          <t>-2,35; 2,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,35</t>
+          <t>-3,99; -0,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,94</t>
+          <t>-2,79; 0,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,45</t>
+          <t>-3,2; 0,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,53</t>
+          <t>-2,45; 1,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,37</t>
+          <t>-3,1; 0,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,76</t>
+          <t>-2,3; 0,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,1</t>
+          <t>-2,49; 0,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,25</t>
+          <t>-2,43; 0,28</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-81,21; 191,38</t>
+          <t>-80,9; 274,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-93,53; 79,11</t>
+          <t>-92,86; 106,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-85,05; 90,23</t>
+          <t>-86,13; 91,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,36; 48,22</t>
+          <t>-87,16; 34,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-85,74; 35,36</t>
+          <t>-84,38; 46,87</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,91</t>
+          <t>0,59; 4,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,99</t>
+          <t>-1,46; 2,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,56</t>
+          <t>-0,65; 3,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,58</t>
+          <t>-1,19; 2,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,82</t>
+          <t>0,03; 2,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,28</t>
+          <t>-0,26; 2,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,43</t>
+          <t>-0,6; 1,4</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,29</t>
+          <t>-0,96; 2,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,24</t>
+          <t>-0,33; 4,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,39</t>
+          <t>-0,37; 3,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,6</t>
+          <t>-0,62; 3,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,84</t>
+          <t>-2,01; 0,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,93</t>
+          <t>-1,02; 1,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,05</t>
+          <t>-0,36; 2,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,03</t>
+          <t>-0,36; 2,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,19</t>
+          <t>-0,1; 2,11</t>
         </is>
       </c>
     </row>
@@ -1901,24 +1901,24 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-65,62; —</t>
+          <t>-63,61; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,66; —</t>
+          <t>-44,77; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,46</t>
+          <t>-1,83; 0,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,05</t>
+          <t>-1,12; 1,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,99</t>
+          <t>-1,27; 1,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,29</t>
+          <t>-2,1; 1,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,78</t>
+          <t>-1,72; 1,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,46</t>
+          <t>-1,9; 1,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,56</t>
+          <t>-1,46; 0,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,36</t>
+          <t>-1,08; 1,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,94</t>
+          <t>-1,04; 1,05</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 238,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-80,23; 1021,64</t>
+          <t>-100,0; 698,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 128,21</t>
+          <t>-71,14; 111,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 170,84</t>
+          <t>-62,24; 191,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 124,03</t>
+          <t>-60,49; 124,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-71,12; 62,43</t>
+          <t>-69,57; 76,77</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 154,68</t>
+          <t>-53,57; 129,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 103,31</t>
+          <t>-51,61; 112,35</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,34</t>
+          <t>-2,05; 0,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,36</t>
+          <t>-0,85; 2,41</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,27</t>
+          <t>-2,49; -0,19</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,81</t>
+          <t>-0,91; 0,9</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,85</t>
+          <t>0,22; 2,96</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,46</t>
+          <t>-1,15; 0,52</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,37</t>
+          <t>-1,12; 0,36</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,22</t>
+          <t>0,23; 2,18</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,38; -0,04</t>
+          <t>-1,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-91,46; 84,5</t>
+          <t>-88,78; 91,38</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 324,12</t>
+          <t>-40,51; 314,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -16,25</t>
+          <t>-100,0; -13,97</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2323,27 +2323,27 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,08; 1443,4</t>
+          <t>-6,24; 1220,05</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-91,56; 289,13</t>
+          <t>-100,0; 281,33</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 68,24</t>
+          <t>-77,74; 63,77</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>5,28; 335,89</t>
+          <t>5,9; 325,53</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-89,51; 1,4</t>
+          <t>-88,45; 13,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,45</t>
+          <t>-0,71; 0,44</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,68</t>
+          <t>-0,51; 0,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,34</t>
+          <t>-0,86; 0,3</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,86</t>
+          <t>-0,21; 0,91</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,83</t>
+          <t>-0,38; 0,74</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,44</t>
+          <t>-0,66; 0,38</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,5</t>
+          <t>-0,32; 0,45</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,57</t>
+          <t>-0,32; 0,55</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,21</t>
+          <t>-0,53; 0,27</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 57,79</t>
+          <t>-49,16; 54,42</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 80,74</t>
+          <t>-39,23; 92,43</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-61,3; 45,0</t>
+          <t>-60,57; 42,57</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 101,26</t>
+          <t>-17,18; 108,3</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 100,42</t>
+          <t>-27,42; 86,53</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-41,87; 55,32</t>
+          <t>-43,94; 43,48</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 55,42</t>
+          <t>-23,52; 48,82</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 63,09</t>
+          <t>-24,37; 59,02</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 23,89</t>
+          <t>-39,74; 31,47</t>
         </is>
       </c>
     </row>
